--- a/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
+++ b/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="49">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -101,15 +101,15 @@
     <t>Usuário do Metro Insere a estação de origem</t>
   </si>
   <si>
+    <t>SYSTEM Pede para informar a estação de destino</t>
+  </si>
+  <si>
+    <t>Usuário do Metro Insere a estação de destino</t>
+  </si>
+  <si>
     <t>SYSTEM Não faz nada</t>
   </si>
   <si>
-    <t>SYSTEM Pede para informar a estação de destino</t>
-  </si>
-  <si>
-    <t>Usuário do Metro Insere a estação de destino</t>
-  </si>
-  <si>
     <t>SYSTEM Pede a quantidade de trajetos</t>
   </si>
   <si>
@@ -152,13 +152,13 @@
     <t>TC5</t>
   </si>
   <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>Usuário do Metro Responde se deseja ou não alguma linha</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC7</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -550,33 +550,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="A13" t="n" s="10">
+    <row r="12">
+      <c r="A12" t="n" s="10">
         <v>3.0</v>
       </c>
-      <c r="B13" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s" s="7">
+      <c r="B12" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="E13" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="n" s="10">
         <v>4.0</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="6">
         <v>2</v>
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s" s="6">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s" s="6">
         <v>2</v>
@@ -949,150 +949,169 @@
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="E39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B45" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D42" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="4">
+      <c r="D45" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F42" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="9">
+      <c r="F45" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="9">
+      <c r="B46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F43" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="8">
+      <c r="F46" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B47" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="5">
+      <c r="C47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B48" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C48" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D48" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E48" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F48" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B47" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48"/>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1103,464 +1122,407 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B50" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52">
+      <c r="A52" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B52" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B53" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52"/>
-    <row r="53"/>
+      <c r="E53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="54"/>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B61" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D55" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s" s="4">
+      <c r="D61" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F55" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="9">
+      <c r="F61" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s" s="9">
+      <c r="B62" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F56" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="8">
+      <c r="F62" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B57" t="s" s="8">
+      <c r="B63" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="5">
+      <c r="C63" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B64" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C58" t="s" s="5">
+      <c r="C64" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D58" t="s" s="5">
+      <c r="D64" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E58" t="s" s="5">
+      <c r="E64" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F58" t="s" s="5">
+      <c r="F64" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B59" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B60" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61"/>
-    <row r="62">
-      <c r="A62" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B62" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B63" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B64" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C64" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E64" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69"/>
+    <row r="70">
+      <c r="A70" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B72" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76">
+      <c r="A76" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="C65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B66" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s" s="4">
+      <c r="C76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D76" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F76" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F77" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B78" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B79" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C79" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D79" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E79" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F79" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="10">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B80" t="s" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D80" t="s" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s" s="6">
         <v>2</v>
@@ -1571,173 +1533,192 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="10">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B84" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="C84" t="s" s="4">
+      <c r="B86" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D84" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s" s="4">
+      <c r="D86" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F84" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="9">
+      <c r="F86" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B85" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s" s="9">
+      <c r="B87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F85" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="8">
+      <c r="F87" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B86" t="s" s="8">
+      <c r="B88" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C86" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="5">
+      <c r="C88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B87" t="s" s="5">
+      <c r="B89" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C87" t="s" s="5">
+      <c r="C89" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D87" t="s" s="5">
+      <c r="D89" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E87" t="s" s="5">
+      <c r="E89" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F87" t="s" s="5">
+      <c r="F89" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B89" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D90" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91"/>
+      <c r="E91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="92">
       <c r="A92" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>2</v>
@@ -1754,7 +1735,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B93" t="s" s="7">
         <v>33</v>
@@ -1763,12 +1744,73 @@
         <v>2</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95">
+      <c r="A95" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E95" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1782,15 +1824,15 @@
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B97:F97"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
+++ b/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="51">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
   <si>
-    <t>TragetosMetro</t>
+    <t>TrajetosMetro</t>
   </si>
   <si>
     <t/>
@@ -107,7 +107,7 @@
     <t>Usuário do Metro Insere a estação de destino</t>
   </si>
   <si>
-    <t>SYSTEM Não faz nada</t>
+    <t>SYSTEM Não faz nada 2</t>
   </si>
   <si>
     <t>SYSTEM Pede a quantidade de trajetos</t>
@@ -116,6 +116,9 @@
     <t>Usuário do Metro Insere a quantidade de trajetos</t>
   </si>
   <si>
+    <t>SYSTEM Não faz nada 3</t>
+  </si>
+  <si>
     <t>SYSTEM Pergunta se quer excluir alguma linha do trajeto</t>
   </si>
   <si>
@@ -140,10 +143,13 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>SYSTEM Não faz nada 1</t>
+  </si>
+  <si>
+    <t>SYSTEM Volta para o menu principal</t>
+  </si>
+  <si>
     <t>TC3</t>
-  </si>
-  <si>
-    <t>SYSTEM Volta para o menu principal</t>
   </si>
   <si>
     <t>TC4</t>
@@ -354,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -611,200 +617,181 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="16"/>
     <row r="17">
       <c r="A17" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B17" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="10">
         <v>7.0</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B18" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="C17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s" s="7">
+      <c r="E18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B19" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="E17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="8">
+      <c r="C19" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="E19" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="C18" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="B20" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23">
+      <c r="A23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B21" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s" s="4">
+      <c r="B23" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D21" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="4">
+      <c r="D23" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F21" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="9">
+      <c r="F23" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s" s="9">
+      <c r="B24" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F22" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="8">
+      <c r="F24" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B25" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C23" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="5">
+      <c r="C25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B26" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C26" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D26" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E24" t="s" s="5">
+      <c r="E26" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F26" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s" s="6">
         <v>2</v>
@@ -815,314 +802,276 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32">
+      <c r="A32" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B28" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s" s="7">
+      <c r="B32" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="E28" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="E33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B34" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s" s="4">
+      <c r="B39" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D34" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s" s="4">
+      <c r="D39" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F34" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="9">
+      <c r="F39" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s" s="9">
+      <c r="B40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F35" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="8">
+      <c r="F40" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B41" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="5">
+      <c r="C41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B42" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C42" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D42" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="E42" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F42" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n" s="10">
+    <row r="43">
+      <c r="A43" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B43" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="C38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="7">
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="E38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="10">
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B44" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="7">
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B40" t="s" s="7">
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45">
-      <c r="A45" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D48" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49"/>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B50" t="s" s="7">
         <v>28</v>
@@ -1131,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1143,7 +1092,7 @@
     <row r="51"/>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>28</v>
@@ -1152,172 +1101,191 @@
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56">
+      <c r="A56" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="E52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="10">
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B64" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="C53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54"/>
-    <row r="55">
-      <c r="A55" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B55" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s" s="7">
+      <c r="C64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="E55" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B56" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F61" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F62" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C64" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D64" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F64" t="s" s="5">
-        <v>25</v>
+      <c r="E64" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1328,201 +1296,220 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
         <v>2.0</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B74" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="C66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69"/>
-    <row r="70">
-      <c r="A70" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B70" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71"/>
-    <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73"/>
-    <row r="74"/>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="75"/>
     <row r="76">
-      <c r="A76" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="C76" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F76" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A76" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77"/>
     <row r="78">
-      <c r="A78" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="8">
+      <c r="A78" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B79" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C79" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D79" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E79" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F79" t="s" s="5">
-        <v>25</v>
+      <c r="A79" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B80" t="s" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D80" t="s" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s" s="6">
         <v>2</v>
@@ -1531,58 +1518,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B82" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="81"/>
+    <row r="82"/>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1598,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="B86" t="s" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C86" t="s" s="4">
         <v>14</v>
@@ -1724,36 +1673,36 @@
         <v>2</v>
       </c>
       <c r="D92" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93"/>
+    <row r="94">
+      <c r="A94" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B93" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="C93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94"/>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="95">
       <c r="A95" t="n" s="10">
         <v>5.0</v>
@@ -1774,43 +1723,247 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n" s="10">
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B96" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="8">
+      <c r="B97" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100">
+      <c r="A100" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108"/>
+    <row r="109">
+      <c r="A109" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="B97" t="s" s="8">
+      <c r="E110" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="C97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s" s="8">
+      <c r="B111" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1819,20 +1972,20 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B111:F111"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
+++ b/MetroLondres/output/xlsx/Calculo do menor trajeto entre duas estações--GT-.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlhel\workspace\Trajetos_Metro_Londres\MetroLondres\output\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="7305"/>
   </bookViews>
@@ -10,12 +15,11 @@
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1:L16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="86">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -249,6 +253,30 @@
   </si>
   <si>
     <t>dasdas</t>
+  </si>
+  <si>
+    <t>Testar fluxo completo</t>
+  </si>
+  <si>
+    <t>Testar nomes das estações 1</t>
+  </si>
+  <si>
+    <t>Testar nomes das estações 2</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Testar nomes das estações 3</t>
+  </si>
+  <si>
+    <t>Testar nomes das estações 4</t>
+  </si>
+  <si>
+    <t>Testar nomes das estações 5</t>
   </si>
 </sst>
 </file>
@@ -424,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -453,15 +481,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -479,6 +498,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +852,10 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -831,8 +868,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
@@ -843,13 +878,13 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
+      <c r="D6" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -857,19 +892,19 @@
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -877,19 +912,19 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="C8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -926,7 +961,7 @@
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -940,13 +975,13 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -960,20 +995,19 @@
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>4</v>
@@ -981,13 +1015,13 @@
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1001,20 +1035,19 @@
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>6</v>
@@ -1028,7 +1061,7 @@
       <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1042,13 +1075,13 @@
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1068,7 +1101,7 @@
       <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1079,24 +1112,22 @@
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25"/>
+      <c r="C20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
@@ -1107,13 +1138,13 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>2</v>
+      <c r="D23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1121,19 +1152,19 @@
       <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -1141,19 +1172,19 @@
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="C25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1190,7 +1221,7 @@
       <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1204,20 +1235,19 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>3</v>
@@ -1225,20 +1255,19 @@
       <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>4</v>
@@ -1246,13 +1275,13 @@
       <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -1266,21 +1295,19 @@
       <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>-2</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>6</v>
@@ -1288,21 +1315,19 @@
       <c r="B36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>12</v>
@@ -1313,13 +1338,13 @@
       <c r="C39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>2</v>
+      <c r="D39" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1327,13 +1352,13 @@
       <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="B40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -1347,19 +1372,19 @@
       <c r="A41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="C41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1396,7 +1421,7 @@
       <c r="D43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -1410,20 +1435,19 @@
       <c r="B44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>3</v>
@@ -1431,13 +1455,13 @@
       <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -1451,21 +1475,19 @@
       <c r="B47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>5</v>
@@ -1473,20 +1495,19 @@
       <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>6</v>
@@ -1494,22 +1515,19 @@
       <c r="B52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
@@ -1520,13 +1538,13 @@
       <c r="C56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>2</v>
+      <c r="D56" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1534,19 +1552,19 @@
       <c r="A57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="11" t="s">
+      <c r="B57" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -1554,19 +1572,19 @@
       <c r="A58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="C58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1603,13 +1621,13 @@
       <c r="D60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="18"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -1624,14 +1642,13 @@
       <c r="D61" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>3</v>
@@ -1639,16 +1656,16 @@
       <c r="B63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="15"/>
+      <c r="E63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
@@ -1657,16 +1674,16 @@
       <c r="B64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1683,7 +1700,7 @@
       <c r="D65" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F65" s="5" t="s">
@@ -1697,21 +1714,19 @@
       <c r="B66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="E66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>12</v>
@@ -1722,13 +1737,13 @@
       <c r="C69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>2</v>
+      <c r="D69" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1736,19 +1751,19 @@
       <c r="A70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="B70" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -1756,19 +1771,19 @@
       <c r="A71" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="12" t="s">
+      <c r="C71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1805,7 +1820,7 @@
       <c r="D73" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -1819,20 +1834,19 @@
       <c r="B74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>3</v>
@@ -1840,20 +1854,19 @@
       <c r="B76" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>4</v>
@@ -1861,13 +1874,13 @@
       <c r="B78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -1881,13 +1894,13 @@
       <c r="B79" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -1901,21 +1914,19 @@
       <c r="B80" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>7</v>
@@ -1923,21 +1934,19 @@
       <c r="B83" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" s="15" t="s">
+      <c r="E83" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>12</v>
@@ -1948,13 +1957,13 @@
       <c r="C86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>2</v>
+      <c r="D86" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1962,19 +1971,19 @@
       <c r="A87" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="B87" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -1982,19 +1991,19 @@
       <c r="A88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="12" t="s">
+      <c r="C88" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2031,7 +2040,7 @@
       <c r="D90" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F90" s="5" t="s">
@@ -2045,13 +2054,13 @@
       <c r="B91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F91" s="5" t="s">
@@ -2065,20 +2074,19 @@
       <c r="B92" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F92" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>4</v>
@@ -2086,13 +2094,13 @@
       <c r="B94" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F94" s="5" t="s">
@@ -2106,21 +2114,21 @@
       <c r="B95" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="19"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
@@ -2129,7 +2137,7 @@
       <c r="B97" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -2138,12 +2146,10 @@
       <c r="E97" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>12</v>
@@ -2154,13 +2160,13 @@
       <c r="C100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>2</v>
+      <c r="D100" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2168,19 +2174,19 @@
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="11" t="s">
+      <c r="B101" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="13">
         <v>44112</v>
       </c>
     </row>
@@ -2188,19 +2194,19 @@
       <c r="A102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F102" s="12" t="s">
+      <c r="C102" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2237,7 +2243,7 @@
       <c r="D104" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -2251,13 +2257,13 @@
       <c r="B105" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -2271,13 +2277,13 @@
       <c r="B106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F106" s="5" t="s">
@@ -2291,20 +2297,19 @@
       <c r="B107" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>5</v>
@@ -2318,7 +2323,7 @@
       <c r="D109" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F109" s="5" t="s">
@@ -2332,13 +2337,13 @@
       <c r="B110" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F110" s="5" t="s">
@@ -2349,24 +2354,34 @@
       <c r="A111" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F111" s="12" t="s">
+      <c r="C111" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="17" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:F58"/>
     <mergeCell ref="B102:F102"/>
     <mergeCell ref="B111:F111"/>
     <mergeCell ref="B70:D70"/>
@@ -2374,16 +2389,6 @@
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B88:F88"/>
     <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
